--- a/TOKEN主控板/RFID控制板/CS-Embedded-RFID-焊接清单.xlsx
+++ b/TOKEN主控板/RFID控制板/CS-Embedded-RFID-焊接清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
   <si>
     <t>CC41-X7R-10V-4.7uF±10%</t>
   </si>
@@ -341,6 +341,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>PHILIPS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -348,16 +356,80 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>芯片</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHILIPS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U6</t>
+      <t>松下</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHX</t>
+  </si>
+  <si>
+    <t>C7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C21, C22, C23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD1, D2, D3, D4, D5, D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'C9, C10, C11, C12, C13, C16, C17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2001WR-2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2001WR-2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CJT/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长江</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1, L4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双排直插</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2*7</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -368,11 +440,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>松下</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+      <t>间距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.0mm</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -380,71 +457,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>贴片晶振</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DHX</t>
-  </si>
-  <si>
-    <t>C7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C21, C22, C23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LD1, D2, D3, D4, D5, D6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'C9, C10, C11, C12, C13, C16, C17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2001WR-2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2001WR-2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CJT/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长江</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1, L4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>IDC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双排直插</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -452,11 +465,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2*7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+      <t>2*7PIN</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -464,7 +474,18 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>间距</t>
+      <t>插针</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双排间距</t>
     </r>
     <r>
       <rPr>
@@ -477,11 +498,10 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，总高（针）</t>
     </r>
     <r>
       <rPr>
@@ -489,27 +509,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2*7PIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>插针</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+      <t>14mm</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>双排间距</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -517,38 +525,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2.0mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，总高（针）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>14mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>IDC14-2.0</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -590,8 +566,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直插</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>晶振</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>光耦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -730,7 +718,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +772,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1089,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1227,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" s="10">
         <v>1</v>
@@ -1252,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H7" s="10">
         <v>2</v>
@@ -1277,7 +1268,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" s="10">
         <v>3</v>
@@ -1302,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H9" s="10">
         <v>7</v>
@@ -1327,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="10">
         <v>1</v>
@@ -1343,13 +1334,13 @@
         <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>14</v>
@@ -1365,19 +1356,19 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="10">
         <v>1</v>
@@ -1404,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H13" s="10">
         <v>2</v>
@@ -1429,7 +1420,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H14" s="10">
         <v>2</v>
@@ -1454,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H15" s="10">
         <v>2</v>
@@ -1479,7 +1470,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="10">
         <v>6</v>
@@ -1504,7 +1495,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H17" s="10">
         <v>1</v>
@@ -1529,7 +1520,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H18" s="10">
         <v>1</v>
@@ -1554,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H19" s="10">
         <v>1</v>
@@ -1579,7 +1570,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="10">
         <v>6</v>
@@ -1604,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H21" s="10">
         <v>5</v>
@@ -1616,11 +1607,11 @@
         <v>22</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>26</v>
@@ -1629,7 +1620,7 @@
         <v>27</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="10">
         <v>1</v>
@@ -1641,11 +1632,11 @@
         <v>23</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="4" t="s">
-        <v>61</v>
+      <c r="C23" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>23</v>
@@ -1666,17 +1657,17 @@
         <v>25</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="4" t="s">
-        <v>65</v>
+      <c r="C24" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>29</v>
